--- a/SummaryTable/SummaryTable.xlsx
+++ b/SummaryTable/SummaryTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Dropbox/semsim_final/semantic-similarity-stm-master/SummaryTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/semantic-similarity-stm-master-2/SummaryTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB5D9A-895E-074B-9331-26D64CDFC519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FD1CB-7CB1-9148-901A-E97CA33CEEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
   </bookViews>
   <sheets>
     <sheet name="SerialReconstruction" sheetId="18" r:id="rId1"/>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{ED52F3D3-A7D8-E249-BDC9-89A1C692B145}">
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{2A3E8CF7-15FC-F845-9298-32F50EA2DEAB}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{9B913067-E648-F040-8FB6-127D1D07E5B7}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{D3042FA4-6F30-1F4E-B8E8-0A6C89C7E79A}">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
   <si>
     <t>Title</t>
   </si>
@@ -482,9 +482,6 @@
     <t>Saint-Aubin &amp; Poirier (1999, 4, Between; only first condition)</t>
   </si>
   <si>
-    <t>The scoring is not the standard one</t>
-  </si>
-  <si>
     <t>Quite and suppression Collapsed</t>
   </si>
   <si>
@@ -627,6 +624,12 @@
   </si>
   <si>
     <t>Chasse_2009_Exp2.xlsx</t>
+  </si>
+  <si>
+    <t>True ListLength was 10 but person name category was dropped. Thus, ListLength was set as 9.</t>
+  </si>
+  <si>
+    <t>The scoring is not the standard one. For Exp. 5, 6 - 10 lengths were used (but dropped 10 length condition).</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -728,6 +731,9 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,7 +1052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13:C14"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S1" s="1"/>
     </row>
@@ -1155,7 +1161,7 @@
         <v>54</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1193,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1225,10 +1231,10 @@
         <v>55</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1260,10 +1266,10 @@
         <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1305,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1347,7 +1353,7 @@
         <v>30</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1392,10 +1398,10 @@
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1440,10 +1446,10 @@
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1506,7 +1512,7 @@
         <v>30</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1539,18 +1545,18 @@
         <v>30</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -1559,19 +1565,19 @@
         <v>-1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1580,7 +1586,7 @@
         <v>-1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1639,11 +1645,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4C46C6-03A2-6048-8E9F-4A3FC3FA2BA1}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,30 +1736,26 @@
         <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2">
         <v>-1</v>
       </c>
@@ -1763,46 +1765,39 @@
       <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>64</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
       <c r="Q2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>53</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>85</v>
+      <c r="U2" t="s">
+        <v>84</v>
       </c>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3">
         <v>-1</v>
       </c>
@@ -1812,32 +1807,29 @@
       <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>64</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
       <c r="Q3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="R3" s="9">
         <v>1</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>53</v>
       </c>
       <c r="T3" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>85</v>
+      <c r="U3" t="s">
+        <v>84</v>
       </c>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1846,7 +1838,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1870,18 +1862,20 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="T4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -1919,16 +1913,16 @@
         <v>23</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -1947,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ref="J6:J26" si="0">K6 / SQRT(M6)</f>
+        <f t="shared" ref="J6:J25" si="0">K6 / SQRT(M6)</f>
         <v>3.354101966249684E-2</v>
       </c>
       <c r="K6" s="4">
@@ -1964,22 +1958,22 @@
         <v>24</v>
       </c>
       <c r="R6" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
+      </c>
+      <c r="T6" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" t="s">
+        <v>83</v>
       </c>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -2015,18 +2009,17 @@
         <v>24</v>
       </c>
       <c r="R7" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>84</v>
+      <c r="U7" t="s">
+        <v>83</v>
       </c>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -2062,18 +2055,17 @@
         <v>24</v>
       </c>
       <c r="R8" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
-        <v>84</v>
+      <c r="U8" t="s">
+        <v>83</v>
       </c>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -2109,27 +2101,26 @@
         <v>24</v>
       </c>
       <c r="R9" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
-        <v>84</v>
+      <c r="U9" t="s">
+        <v>83</v>
       </c>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2156,18 +2147,17 @@
         <v>24</v>
       </c>
       <c r="R10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
-        <v>84</v>
+      <c r="U10" t="s">
+        <v>83</v>
       </c>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -2176,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2203,18 +2193,17 @@
         <v>24</v>
       </c>
       <c r="R11" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>84</v>
+      <c r="U11" t="s">
+        <v>83</v>
       </c>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -2223,7 +2212,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2250,18 +2239,17 @@
         <v>24</v>
       </c>
       <c r="R12" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
-        <v>84</v>
+      <c r="U12" t="s">
+        <v>83</v>
       </c>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -2270,7 +2258,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2297,166 +2285,187 @@
         <v>24</v>
       </c>
       <c r="R13" s="10">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="U13" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
-        <v>3.354101966249684E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <v>20</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9" t="s">
+        <v>1.4342535805544756</v>
+      </c>
+      <c r="K14">
+        <f>SQRT(L14)</f>
+        <v>7.0263788682364687</v>
+      </c>
+      <c r="L14">
+        <v>49.37</v>
+      </c>
+      <c r="M14">
         <v>24</v>
       </c>
-      <c r="R14" s="10">
+      <c r="N14">
+        <f>O14 - P14</f>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="O14">
+        <v>4.24</v>
+      </c>
+      <c r="P14">
+        <v>3.25</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" t="s">
+        <v>83</v>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
       <c r="I15" s="11">
         <v>1</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="0"/>
-        <v>1.4342535805544756</v>
-      </c>
-      <c r="K15" s="1">
-        <f>SQRT(L15)</f>
-        <v>7.0263788682364687</v>
-      </c>
-      <c r="L15" s="1">
-        <v>49.37</v>
-      </c>
-      <c r="M15" s="1">
-        <v>24</v>
-      </c>
-      <c r="N15" s="1">
-        <f>O15 - P15</f>
-        <v>0.99000000000000021</v>
-      </c>
-      <c r="O15" s="1">
-        <v>4.24</v>
-      </c>
-      <c r="P15" s="1">
-        <v>3.25</v>
+        <v>1.5264337522473748</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K18" si="1">SQRT(L15)</f>
+        <v>6.1057350089894991</v>
+      </c>
+      <c r="L15">
+        <v>37.28</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N26" si="2">O15 - P15</f>
+        <v>0</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15" t="s">
+        <v>63</v>
       </c>
       <c r="T15" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>84</v>
+      <c r="U15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>6</v>
       </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
       <c r="I16" s="11">
         <v>1</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="0"/>
-        <v>1.5264337522473748</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" ref="K16:K19" si="1">SQRT(L16)</f>
-        <v>6.1057350089894991</v>
-      </c>
-      <c r="L16" s="1">
-        <v>37.28</v>
-      </c>
-      <c r="M16" s="1">
+        <v>1.1219402836158439</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4.4877611344633754</v>
+      </c>
+      <c r="L16">
+        <v>20.14</v>
+      </c>
+      <c r="M16">
         <v>16</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" ref="N16:N27" si="2">O16 - P16</f>
+      <c r="N16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>64</v>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="10">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>63</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>84</v>
+      <c r="U16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
         <v>6</v>
       </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
       <c r="I17" s="11">
         <v>1</v>
       </c>
@@ -2464,174 +2473,192 @@
         <f t="shared" si="0"/>
         <v>1.1219402836158439</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>4.4877611344633754</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>20.14</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>16</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="O17"/>
+      <c r="P17"/>
       <c r="Q17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="R17" s="10">
         <v>1</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>84</v>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>1.1219402836158439</v>
-      </c>
-      <c r="K18" s="1">
+        <v>1.2861441080480318</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="1"/>
-        <v>4.4877611344633754</v>
-      </c>
-      <c r="L18" s="1">
-        <v>20.14</v>
-      </c>
-      <c r="M18" s="1">
-        <v>16</v>
-      </c>
-      <c r="N18" s="1">
+        <v>6.3007936008093459</v>
+      </c>
+      <c r="L18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M18">
+        <v>24</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="10">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>84</v>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
       <c r="I19" s="11">
         <v>1</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>1.2861441080480318</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3007936008093459</v>
-      </c>
-      <c r="L19" s="1">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M19" s="1">
+        <v>0.39528470752104744</v>
+      </c>
+      <c r="K19">
+        <f>SQRT(L19)</f>
+        <v>1.9364916731037085</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
         <v>24</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="11">
         <v>1</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>0.39528470752104744</v>
-      </c>
-      <c r="K20" s="1">
-        <f>SQRT(L20)</f>
-        <v>1.9364916731037085</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="M20" s="1">
-        <v>24</v>
-      </c>
-      <c r="N20" s="1">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5.64</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>25</v>
+      </c>
+      <c r="N20" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>84</v>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
@@ -2645,10 +2672,10 @@
       </c>
       <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>1.1279999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="K21" s="4">
-        <v>5.64</v>
+        <v>1.91</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
@@ -2663,22 +2690,22 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="1" t="s">
+      <c r="T21" t="s">
         <v>94</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>84</v>
+      <c r="U21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
@@ -2692,14 +2719,14 @@
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0.38200000000000001</v>
+        <v>1.4333195735773652</v>
       </c>
       <c r="K22" s="4">
-        <v>1.91</v>
+        <v>6.41</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="2"/>
@@ -2709,12 +2736,14 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="1" t="s">
+      <c r="S22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" t="s">
         <v>95</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>84</v>
+      <c r="U22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2725,7 +2754,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
@@ -2739,10 +2768,10 @@
       </c>
       <c r="J23" s="11">
         <f t="shared" si="0"/>
-        <v>1.4333195735773652</v>
+        <v>0.48522675111745434</v>
       </c>
       <c r="K23" s="4">
-        <v>6.41</v>
+        <v>2.17</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
@@ -2756,282 +2785,273 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T23" s="1" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" t="s">
         <v>96</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>84</v>
+      <c r="U23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
       <c r="I24" s="11">
         <v>1</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="0"/>
-        <v>0.48522675111745434</v>
-      </c>
-      <c r="K24" s="4">
-        <v>2.17</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
-        <v>20</v>
-      </c>
-      <c r="N24" s="4">
+        <v>0.77055175037112211</v>
+      </c>
+      <c r="K24">
+        <v>9.5</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24">
+        <v>152</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="1" t="s">
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24" t="s">
         <v>97</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>84</v>
+      <c r="U24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="I25" s="11">
         <v>1</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>0.77055175037112211</v>
-      </c>
-      <c r="K25" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="M25" s="1">
+        <v>0.54587508210501601</v>
+      </c>
+      <c r="K25">
+        <v>6.73</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25">
         <v>152</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" t="s">
         <v>98</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>84</v>
+      <c r="U25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4">
         <v>6</v>
       </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="11">
         <v>1</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="0"/>
-        <v>0.54587508210501601</v>
-      </c>
-      <c r="K26" s="1">
-        <v>6.73</v>
-      </c>
-      <c r="M26" s="1">
-        <v>152</v>
-      </c>
-      <c r="N26" s="1">
+        <f>K26 / SQRT(M26)</f>
+        <v>1.7262676501632068</v>
+      </c>
+      <c r="K26" s="4">
+        <f>SQRT(L26)</f>
+        <v>7.7201036262475133</v>
+      </c>
+      <c r="L26" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="M26" s="4">
+        <v>20</v>
+      </c>
+      <c r="N26" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>84</v>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="1">
         <v>6</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="11">
-        <v>1</v>
-      </c>
-      <c r="J27" s="11">
-        <f>K27 / SQRT(M27)</f>
-        <v>1.7262676501632068</v>
-      </c>
-      <c r="K27" s="4">
-        <f>SQRT(L27)</f>
-        <v>7.7201036262475133</v>
-      </c>
-      <c r="L27" s="4">
-        <v>59.6</v>
-      </c>
-      <c r="M27" s="4">
-        <v>20</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="I28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="U28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="L29" t="s">
         <v>104</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
-        <v>106</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="11">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -3040,47 +3060,27 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" s="11">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842B498-2081-0D45-90F6-1743F33BB182}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:A46"/>
     </sheetView>
   </sheetViews>
@@ -3296,42 +3296,42 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/SummaryTable/SummaryTable.xlsx
+++ b/SummaryTable/SummaryTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/semantic-similarity-stm-master-2/SummaryTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/semsim_check_Jan24/SummaryTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FD1CB-7CB1-9148-901A-E97CA33CEEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC82DB8-896B-A14B-B3F3-30E652A10D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
   </bookViews>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
   <si>
     <t>Title</t>
   </si>
@@ -630,6 +630,12 @@
   </si>
   <si>
     <t>The scoring is not the standard one. For Exp. 5, 6 - 10 lengths were used (but dropped 10 length condition).</t>
+  </si>
+  <si>
+    <t>Chasse_2009_1</t>
+  </si>
+  <si>
+    <t>Chasse_2009_2</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1057,8 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1076,7 @@
     <col min="11" max="11" width="6.1640625" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="93.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
@@ -1567,7 +1573,12 @@
       <c r="L13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1588,7 +1599,12 @@
       <c r="L14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
@@ -1648,8 +1664,8 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A27" sqref="A27:XFD27"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,6 +3038,12 @@
       <c r="L29" t="s">
         <v>104</v>
       </c>
+      <c r="Q29" t="s">
+        <v>113</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3042,6 +3064,12 @@
       <c r="L30" t="s">
         <v>104</v>
       </c>
+      <c r="Q30" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -3062,6 +3090,12 @@
       <c r="L31" t="s">
         <v>104</v>
       </c>
+      <c r="Q31" t="s">
+        <v>114</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -3081,6 +3115,12 @@
       </c>
       <c r="L32" t="s">
         <v>104</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>114</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SummaryTable/SummaryTable.xlsx
+++ b/SummaryTable/SummaryTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/semsim_check_Jan24/SummaryTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/FINALCHECK/SummaryTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC82DB8-896B-A14B-B3F3-30E652A10D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D531A4-B120-8F4F-A460-FDA55824309B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
   </bookViews>
   <sheets>
     <sheet name="SerialReconstruction" sheetId="18" r:id="rId1"/>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>Belleville_2003_4</t>
-  </si>
-  <si>
-    <t>Not reported</t>
   </si>
   <si>
     <t>Control group</t>
@@ -1056,9 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130E2A9F-2934-3A4C-B138-580F2A86AE7C}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,13 +1553,13 @@
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -1571,10 +1568,10 @@
         <v>-1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1582,13 +1579,13 @@
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1597,10 +1594,10 @@
         <v>-1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1663,9 +1660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4C46C6-03A2-6048-8E9F-4A3FC3FA2BA1}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1879,7 +1876,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="6"/>
       <c r="S4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>30</v>
@@ -1977,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T6" t="s">
         <v>92</v>
@@ -2611,7 +2608,9 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
-      <c r="S19"/>
+      <c r="S19" t="s">
+        <v>63</v>
+      </c>
       <c r="T19" s="11" t="s">
         <v>68</v>
       </c>
@@ -2801,7 +2800,9 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T23" t="s">
         <v>96</v>
       </c>
@@ -2971,6 +2972,9 @@
       <c r="I27" s="11">
         <v>1</v>
       </c>
+      <c r="L27" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="Q27" s="1" t="s">
         <v>103</v>
       </c>
@@ -2978,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>83</v>
@@ -3003,6 +3007,9 @@
       <c r="I28" s="11">
         <v>1</v>
       </c>
+      <c r="L28" t="s">
+        <v>85</v>
+      </c>
       <c r="Q28" t="s">
         <v>103</v>
       </c>
@@ -3010,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>83</v>
@@ -3021,13 +3028,13 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -3036,24 +3043,27 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Q29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R29">
         <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -3062,24 +3072,27 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Q30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R30">
         <v>1</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -3088,24 +3101,27 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Q31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R31">
         <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
@@ -3114,13 +3130,16 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Q32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R32">
         <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3336,12 +3355,12 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
@@ -3356,22 +3375,22 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/SummaryTable/SummaryTable.xlsx
+++ b/SummaryTable/SummaryTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/FINALCHECK/SummaryTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/Feb12/SummaryTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D531A4-B120-8F4F-A460-FDA55824309B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F8EECC-03D2-7048-8659-2DCCAEA987FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
   </bookViews>
   <sheets>
     <sheet name="SerialReconstruction" sheetId="18" r:id="rId1"/>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{2A3E8CF7-15FC-F845-9298-32F50EA2DEAB}">
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{2A3E8CF7-15FC-F845-9298-32F50EA2DEAB}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{D3042FA4-6F30-1F4E-B8E8-0A6C89C7E79A}">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{B526ED48-1BBA-9447-832B-DA9C25E24653}">
       <text>
         <r>
           <rPr>
@@ -239,21 +239,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The stimuli were lists of six French words adapted from the materials used by Saint-Aubin and Poirier (1999b; Ex- periment 2). From their 28 lists of seven semantically similar words, we retained 24 lists for the experimental trials and two lists for the practice trials. </t>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sho Ishiguro</author>
-  </authors>
-  <commentList>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{2708DD62-FE77-F940-B572-83A3F442C03F}">
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{1F61B494-5E1E-E044-A3F9-0F4058DB1641}">
       <text>
         <r>
           <rPr>
@@ -282,7 +272,172 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The stimuli were lists of six French words adapted from the materials used by Saint-Aubin and Poirier (1999b; Ex- periment 2). From their 28 lists of seven semantically similar words, we retained 24 lists for the experimental trials and two lists for the practice trials. </t>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{BD3423C4-534B-E843-804B-28F4DDA35A8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{323C3C63-6A83-6F40-B57F-0D02FC3D1769}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{B421991C-1F30-0E4E-B416-FD27FD35A472}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{ED7B88ED-B968-CF49-8A58-D352027706E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{15D6EFB6-616F-BD4C-A5B9-52B717EED183}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
         </r>
       </text>
     </comment>
@@ -291,7 +446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="113">
   <si>
     <t>Title</t>
   </si>
@@ -452,36 +607,18 @@
     <t>n.s</t>
   </si>
   <si>
-    <t>Error was the dependent variable</t>
-  </si>
-  <si>
     <t>p &lt; .05 (Wilcoxon test)</t>
   </si>
   <si>
     <t>Dependant variable was errors. Direction was based on the values reported in the main text (p. 491).</t>
   </si>
   <si>
-    <t>Saint-Aubin &amp; Poirier (1999, 4, Within; both conditions)</t>
-  </si>
-  <si>
     <t>Aso</t>
   </si>
   <si>
     <t>Unaso</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>MP_sim</t>
-  </si>
-  <si>
-    <t>MP_dsim</t>
-  </si>
-  <si>
-    <t>Saint-Aubin &amp; Poirier (1999, 4, Between; only first condition)</t>
-  </si>
-  <si>
     <t>Quite and suppression Collapsed</t>
   </si>
   <si>
@@ -515,9 +652,6 @@
     <t>Saint-Aubin &amp; Poirier (1999, 2)</t>
   </si>
   <si>
-    <t>Guerard &amp; Saint-Aubin (2012, 3)</t>
-  </si>
-  <si>
     <t>Nelson et al. (1977, 4)</t>
   </si>
   <si>
@@ -590,9 +724,6 @@
     <t>t(151) = 6.73, p &lt; .001</t>
   </si>
   <si>
-    <t>F(1, 19) = 3.04, p &lt; .05 (one-tailed)</t>
-  </si>
-  <si>
     <t>Belleville et al. (2003, 4)</t>
   </si>
   <si>
@@ -605,9 +736,6 @@
     <t>Belleville_2003_4</t>
   </si>
   <si>
-    <t>Control group</t>
-  </si>
-  <si>
     <t>Chasse &amp; Belleville (2009, 1)</t>
   </si>
   <si>
@@ -633,6 +761,30 @@
   </si>
   <si>
     <t>Chasse_2009_2</t>
+  </si>
+  <si>
+    <t>Performance of the healthy control group</t>
+  </si>
+  <si>
+    <t>Guérard &amp; Saint-Aubin (2012, 3)</t>
+  </si>
+  <si>
+    <t>Error was the dependent variable.</t>
+  </si>
+  <si>
+    <t>Perforamnce of the healthy control group</t>
+  </si>
+  <si>
+    <t>Saint-Aubin &amp; Poirier (1999, 4, both conditions)</t>
+  </si>
+  <si>
+    <t>Saint-Aubin &amp; Poirier (1999, 4, first condition)</t>
+  </si>
+  <si>
+    <t>p &lt; .05</t>
+  </si>
+  <si>
+    <t>F(1, 19) = 3.04, p &lt; .05</t>
   </si>
 </sst>
 </file>
@@ -674,7 +826,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,18 +836,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -730,9 +870,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1053,9 +1190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130E2A9F-2934-3A4C-B138-580F2A86AE7C}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,10 +1237,10 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1130,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1"/>
     </row>
@@ -1154,17 +1291,17 @@
         <v>-1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="1">
         <v>21</v>
       </c>
       <c r="O2" s="3"/>
       <c r="Q2" s="1" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1184,7 +1321,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>-1</v>
       </c>
       <c r="J3" s="4"/>
@@ -1202,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1224,20 +1361,20 @@
       <c r="M4" s="1">
         <v>96</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1259,20 +1396,20 @@
       <c r="M5" s="1">
         <v>96</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="3">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1303,10 +1440,10 @@
       <c r="M6" s="4">
         <v>40</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6">
         <v>1</v>
       </c>
       <c r="P6" s="4"/>
@@ -1314,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1345,10 +1482,10 @@
       <c r="M7" s="4">
         <v>40</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="6">
         <v>1</v>
       </c>
       <c r="P7" s="4"/>
@@ -1356,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1393,18 +1530,18 @@
       <c r="M8" s="4">
         <v>20</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="6">
         <v>1</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1441,18 +1578,18 @@
       <c r="M9" s="4">
         <v>20</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <v>1</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1481,13 +1618,13 @@
       <c r="Q10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>83</v>
+      <c r="R10" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1514,13 +1651,13 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>83</v>
+      <c r="R11" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1548,59 +1685,91 @@
         <v>30</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="A13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="I13" s="1">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
         <v>-1</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>11</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="A14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="I14" s="1">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>-1</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1658,11 +1827,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4C46C6-03A2-6048-8E9F-4A3FC3FA2BA1}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S23" sqref="S23"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,17 +1849,14 @@
     <col min="11" max="11" width="6.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1710,10 +1876,10 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1731,36 +1897,27 @@
         <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
@@ -1781,28 +1938,28 @@
       <c r="M2">
         <v>64</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
@@ -1823,26 +1980,26 @@
       <c r="M3">
         <v>64</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="N3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="9">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1871,24 +2028,21 @@
         <v>24</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="O4" s="6"/>
+      <c r="P4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -1918,24 +2072,21 @@
         <v>32</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4" t="s">
+      <c r="O5" s="6"/>
+      <c r="P5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -1964,29 +2115,26 @@
       <c r="M6" s="4">
         <v>20</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9" t="s">
+      <c r="N6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="10">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -2015,24 +2163,26 @@
       <c r="M7" s="4">
         <v>20</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9" t="s">
+      <c r="N7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="10">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="U7" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -2061,24 +2211,26 @@
       <c r="M8" s="4">
         <v>20</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="9" t="s">
+      <c r="N8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="10">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="U8" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -2107,24 +2259,26 @@
       <c r="M9" s="4">
         <v>20</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9" t="s">
+      <c r="N9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="10">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="U9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -2153,24 +2307,26 @@
       <c r="M10" s="4">
         <v>20</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9" t="s">
+      <c r="N10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="U10" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -2199,24 +2355,26 @@
       <c r="M11" s="4">
         <v>20</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9" t="s">
+      <c r="N11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="10">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="U11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -2245,24 +2403,26 @@
       <c r="M12" s="4">
         <v>20</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="9" t="s">
+      <c r="N12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="10">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="U12" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -2291,26 +2451,28 @@
       <c r="M13" s="4">
         <v>20</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="9" t="s">
+      <c r="N13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="10">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="U13" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
@@ -2319,10 +2481,10 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>1.4342535805544756</v>
       </c>
@@ -2336,29 +2498,21 @@
       <c r="M14">
         <v>24</v>
       </c>
-      <c r="N14">
-        <f>O14 - P14</f>
-        <v>0.99000000000000021</v>
-      </c>
-      <c r="O14">
-        <v>4.24</v>
-      </c>
-      <c r="P14">
-        <v>3.25</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
@@ -2371,10 +2525,10 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>1.5264337522473748</v>
       </c>
@@ -2388,29 +2542,21 @@
       <c r="M15">
         <v>16</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15:N26" si="2">O15 - P15</f>
-        <v>0</v>
-      </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="U15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
@@ -2423,10 +2569,10 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>1.1219402836158439</v>
       </c>
@@ -2440,33 +2586,27 @@
       <c r="M16">
         <v>16</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16" s="9" t="s">
+      <c r="N16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="10">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
@@ -2479,10 +2619,10 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="11">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>1.1219402836158439</v>
       </c>
@@ -2496,650 +2636,624 @@
       <c r="M17">
         <v>16</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17" s="9" t="s">
+      <c r="N17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="10">
-        <v>1</v>
-      </c>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>1.2861441080480318</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <f t="shared" si="1"/>
         <v>6.3007936008093459</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>24</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="R18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>7</v>
       </c>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19" s="11">
-        <v>1</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>0.39528470752104744</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <f>SQRT(L19)</f>
         <v>1.9364916731037085</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>3.75</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>24</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="11">
-        <v>1</v>
-      </c>
-      <c r="J20" s="11">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
         <v>1.1279999999999999</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <v>5.64</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="M20" s="1">
         <v>25</v>
       </c>
-      <c r="N20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" t="s">
-        <v>93</v>
-      </c>
-      <c r="U20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="Q20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="11">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="0"/>
         <v>0.38200000000000001</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>1.91</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="M21" s="1">
         <v>25</v>
       </c>
-      <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="Q21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>6</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="0"/>
         <v>1.4333195735773652</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>6.41</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <v>20</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T22" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="11">
-        <v>1</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>0.48522675111745434</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <v>2.17</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="M23" s="1">
         <v>20</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T23" t="s">
-        <v>96</v>
-      </c>
-      <c r="U23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="P23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>6</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24" s="11">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>0.77055175037112211</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>9.5</v>
       </c>
-      <c r="L24"/>
-      <c r="M24">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>152</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24" t="s">
-        <v>97</v>
-      </c>
-      <c r="U24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>6</v>
       </c>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25" s="11">
-        <v>1</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>0.54587508210501601</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>6.73</v>
       </c>
-      <c r="L25"/>
-      <c r="M25">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <v>152</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25" t="s">
-        <v>98</v>
-      </c>
-      <c r="U25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>6</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
         <f>K26 / SQRT(M26)</f>
         <v>1.7262676501632068</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <f>SQRT(L26)</f>
         <v>7.7201036262475133</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
         <v>59.6</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="P26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4">
         <v>5</v>
       </c>
-      <c r="I27" s="11">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4">
         <v>6</v>
       </c>
-      <c r="I28" s="11">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>103</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
-        <v>104</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <v>4</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="I29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>112</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="I30" s="11">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>112</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <v>10</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
-      <c r="I31" s="11">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>113</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>113</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>85</v>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
+        <v>11</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3151,11 +3265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842B498-2081-0D45-90F6-1743F33BB182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842B498-2081-0D45-90F6-1743F33BB182}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,23 +3338,23 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -3250,7 +3364,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -3270,7 +3384,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -3289,112 +3403,109 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>109</v>
+      <c r="A40" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>102</v>
+      <c r="A41" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SummaryTable/SummaryTable.xlsx
+++ b/SummaryTable/SummaryTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/Feb12/SummaryTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F8EECC-03D2-7048-8659-2DCCAEA987FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A9323-17FA-2448-87C2-4B7F4ACD7B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
   </bookViews>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -484,9 +484,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>Tse (2009, Mixed)</t>
-  </si>
-  <si>
     <t>dz</t>
   </si>
   <si>
@@ -785,6 +782,12 @@
   </si>
   <si>
     <t>F(1, 19) = 3.04, p &lt; .05</t>
+  </si>
+  <si>
+    <t>Tse (2009, Mixed-associative)</t>
+  </si>
+  <si>
+    <t>Tse (2009, Mixed-categorical)</t>
   </si>
 </sst>
 </file>
@@ -1225,28 +1228,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1255,34 +1258,34 @@
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1291,28 +1294,28 @@
         <v>-1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1">
         <v>21</v>
       </c>
       <c r="O2" s="3"/>
       <c r="Q2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1327,7 +1330,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="4">
         <v>40</v>
@@ -1336,21 +1339,21 @@
       <c r="O3" s="6"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
@@ -1362,30 +1365,30 @@
         <v>96</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -1397,30 +1400,30 @@
         <v>96</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>9</v>
@@ -1435,34 +1438,34 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4">
         <v>40</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="6">
         <v>1</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>9</v>
@@ -1477,34 +1480,34 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4">
         <v>40</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="6">
         <v>1</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
@@ -1531,28 +1534,28 @@
         <v>20</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -1579,28 +1582,28 @@
         <v>20</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -1609,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="1">
         <v>24</v>
       </c>
       <c r="O10" s="3"/>
       <c r="Q10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1639,31 +1642,31 @@
         <v>-1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="1">
         <v>56</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1672,31 +1675,31 @@
         <v>-1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1">
         <v>56</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
@@ -1715,30 +1718,30 @@
         <v>11</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D14" s="4">
         <v>7</v>
@@ -1757,19 +1760,19 @@
         <v>11</v>
       </c>
       <c r="N14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1831,7 +1834,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1864,28 +1867,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1894,34 +1897,34 @@
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1930,40 +1933,40 @@
         <v>-1</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2">
         <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1972,40 +1975,40 @@
         <v>-1</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3">
         <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
         <v>9</v>
@@ -2015,14 +2018,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4">
         <v>24</v>
@@ -2030,25 +2033,25 @@
       <c r="N4" s="4"/>
       <c r="O4" s="6"/>
       <c r="P4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>9</v>
@@ -2058,7 +2061,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
@@ -2074,25 +2077,25 @@
       <c r="N5" s="4"/>
       <c r="O5" s="6"/>
       <c r="P5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>6</v>
@@ -2116,31 +2119,31 @@
         <v>20</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="6">
         <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>7</v>
@@ -2164,31 +2167,31 @@
         <v>20</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="6">
         <v>1</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
@@ -2212,31 +2215,31 @@
         <v>20</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>9</v>
@@ -2260,31 +2263,31 @@
         <v>20</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -2308,31 +2311,31 @@
         <v>20</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="6">
         <v>1</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
@@ -2356,31 +2359,31 @@
         <v>20</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" s="6">
         <v>1</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
@@ -2404,31 +2407,31 @@
         <v>20</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" s="6">
         <v>1</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -2452,31 +2455,31 @@
         <v>20</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="6">
         <v>1</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -2501,22 +2504,22 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -2543,24 +2546,24 @@
         <v>16</v>
       </c>
       <c r="P15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -2587,30 +2590,30 @@
         <v>16</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O16" s="3">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2637,30 +2640,30 @@
         <v>16</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
         <v>6</v>
@@ -2689,24 +2692,24 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4">
         <v>7</v>
@@ -2735,24 +2738,24 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -2771,21 +2774,21 @@
         <v>25</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>6</v>
@@ -2804,21 +2807,21 @@
         <v>25</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
@@ -2837,24 +2840,24 @@
         <v>20</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -2873,24 +2876,24 @@
         <v>20</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
         <v>6</v>
@@ -2917,21 +2920,21 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4">
         <v>6</v>
@@ -2958,21 +2961,21 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
@@ -2995,24 +2998,24 @@
         <v>20</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -3031,30 +3034,30 @@
         <v>4</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O27" s="4">
         <v>1</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="4">
         <v>6</v>
@@ -3073,30 +3076,30 @@
         <v>4</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="4">
         <v>1</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -3115,30 +3118,30 @@
         <v>10</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -3157,30 +3160,30 @@
         <v>10</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -3199,30 +3202,30 @@
         <v>11</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
@@ -3241,19 +3244,19 @@
         <v>11</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3279,227 +3282,227 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">

--- a/SummaryTable/SummaryTable.xlsx
+++ b/SummaryTable/SummaryTable.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Downloads/Feb12/SummaryTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Dropbox/ANALYSIS_PBR_Revision/SummaryTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A9323-17FA-2448-87C2-4B7F4ACD7B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B83FC50-7BAF-C046-82D2-9670ACE65383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{628F735F-B7A5-9949-BF34-209E22991E59}"/>
   </bookViews>
   <sheets>
     <sheet name="SerialReconstruction" sheetId="18" r:id="rId1"/>
     <sheet name="SerialRecall" sheetId="14" r:id="rId2"/>
-    <sheet name="AllMaterials" sheetId="22" r:id="rId3"/>
+    <sheet name="ItemCorrect" sheetId="23" r:id="rId3"/>
+    <sheet name="OrderErrors" sheetId="24" r:id="rId4"/>
+    <sheet name="AllMaterials" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
     <author>Sho Ishiguro</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{8684DD01-833A-2344-A888-A65FAE8CA634}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8684DD01-833A-2344-A888-A65FAE8CA634}">
       <text>
         <r>
           <rPr>
@@ -101,7 +103,7 @@
     <author>Sho Ishiguro</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2347DA0E-04F4-1C46-A9AE-30511C4D811C}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2347DA0E-04F4-1C46-A9AE-30511C4D811C}">
       <text>
         <r>
           <rPr>
@@ -144,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E1F1B24A-3363-9E47-B3B2-39AE665A52C6}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E1F1B24A-3363-9E47-B3B2-39AE665A52C6}">
       <text>
         <r>
           <rPr>
@@ -177,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{2A3E8CF7-15FC-F845-9298-32F50EA2DEAB}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{2A3E8CF7-15FC-F845-9298-32F50EA2DEAB}">
       <text>
         <r>
           <rPr>
@@ -210,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{B526ED48-1BBA-9447-832B-DA9C25E24653}">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{B526ED48-1BBA-9447-832B-DA9C25E24653}">
       <text>
         <r>
           <rPr>
@@ -243,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{1F61B494-5E1E-E044-A3F9-0F4058DB1641}">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{1F61B494-5E1E-E044-A3F9-0F4058DB1641}">
       <text>
         <r>
           <rPr>
@@ -276,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{BD3423C4-534B-E843-804B-28F4DDA35A8A}">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{BD3423C4-534B-E843-804B-28F4DDA35A8A}">
       <text>
         <r>
           <rPr>
@@ -309,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{323C3C63-6A83-6F40-B57F-0D02FC3D1769}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{323C3C63-6A83-6F40-B57F-0D02FC3D1769}">
       <text>
         <r>
           <rPr>
@@ -342,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{B421991C-1F30-0E4E-B416-FD27FD35A472}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{B421991C-1F30-0E4E-B416-FD27FD35A472}">
       <text>
         <r>
           <rPr>
@@ -375,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{ED7B88ED-B968-CF49-8A58-D352027706E7}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{ED7B88ED-B968-CF49-8A58-D352027706E7}">
       <text>
         <r>
           <rPr>
@@ -408,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{15D6EFB6-616F-BD4C-A5B9-52B717EED183}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{15D6EFB6-616F-BD4C-A5B9-52B717EED183}">
       <text>
         <r>
           <rPr>
@@ -438,6 +440,443 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sho Ishiguro</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{557E781C-06C7-7346-BB68-805C915FEC0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: Advantage
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-1: Dissadvantage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{0534A39A-18FA-FD41-BFA1-6CB52A3D6B77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{76E5894C-BD1E-9743-B4A2-4C8B24224ACC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{56BCFA6D-6EF7-F94D-804E-22155F83C030}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{7CC62B60-A033-1A43-A949-E5CD3958A1DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{52C0E331-8DB8-5C4E-89AC-4AB2A68DCE1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{CF12F778-D65D-0744-9758-C2551D113795}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{F958FB3C-E8C4-1C47-97BB-224C31618EDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{E29D63A0-14ED-DC4B-A0D5-EB1DB763E282}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The measure of ordered recall used here was derived by counting in from both the beginning and end of the recall protocol until the first error in either direction was reached and adding together the number of correct recalls from both starting points. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sho Ishiguro</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EB3ABA3E-844A-F94B-B71A-06D372201693}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: Increased Errors
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-1: Decreased Errors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{638B9474-D183-F14F-912B-BE0FC0235F3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cohen's dz = t / sqrt(n)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{B33B0244-DB5B-DF48-B00B-33B871882AF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sho Ishiguro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">From Table 9
+</t>
         </r>
       </text>
     </comment>
@@ -446,7 +885,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="144">
   <si>
     <t>Title</t>
   </si>
@@ -496,12 +935,6 @@
     <t>Saint-Aubin_1999a_Exp1.xlsx</t>
   </si>
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Dsim</t>
-  </si>
-  <si>
     <t>Crowder_1979_Exp1_Noun.xlsx</t>
   </si>
   <si>
@@ -610,12 +1043,6 @@
     <t>Dependant variable was errors. Direction was based on the values reported in the main text (p. 491).</t>
   </si>
   <si>
-    <t>Aso</t>
-  </si>
-  <si>
-    <t>Unaso</t>
-  </si>
-  <si>
     <t>Quite and suppression Collapsed</t>
   </si>
   <si>
@@ -643,12 +1070,6 @@
     <t>Tse (2009, Pure-categorical)</t>
   </si>
   <si>
-    <t>Saint-Aubin &amp; Poirier (1999, 1)</t>
-  </si>
-  <si>
-    <t>Saint-Aubin &amp; Poirier (1999, 2)</t>
-  </si>
-  <si>
     <t>Nelson et al. (1977, 4)</t>
   </si>
   <si>
@@ -788,6 +1209,114 @@
   </si>
   <si>
     <t>Tse (2009, Mixed-categorical)</t>
+  </si>
+  <si>
+    <t>Hadley (2006, 4)</t>
+  </si>
+  <si>
+    <t>Hadley_2006_Exp4.xlsx</t>
+  </si>
+  <si>
+    <t>Long-term memory contributions…</t>
+  </si>
+  <si>
+    <t>No Age x list type interaction (thus, collapsed)</t>
+  </si>
+  <si>
+    <t>Competition and inhibition…</t>
+  </si>
+  <si>
+    <t>Biegler_2007_Exp7.xlsx</t>
+  </si>
+  <si>
+    <t>Biegler (2007, 7, Closed)</t>
+  </si>
+  <si>
+    <t>Biegler (2007, 7, Open)</t>
+  </si>
+  <si>
+    <t>Wihtin</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>"exactly the same pattern of results as the stringent scoring [(correct in position)]" (p. 493)</t>
+  </si>
+  <si>
+    <t>F(1,22) = 4.67, p &lt; .05</t>
+  </si>
+  <si>
+    <t>F(1, 46) = 122.567, p &lt; .001</t>
+  </si>
+  <si>
+    <t>F(1, 23) = 4.09, p = .06</t>
+  </si>
+  <si>
+    <t>Tse (2009, Pure)</t>
+  </si>
+  <si>
+    <t>Tse (2009, Mixed)</t>
+  </si>
+  <si>
+    <t>25 x 2</t>
+  </si>
+  <si>
+    <t>F(1, 48) = 8.17, p &lt; .01</t>
+  </si>
+  <si>
+    <t>F(1, 19) = 17.06, p &lt; .001</t>
+  </si>
+  <si>
+    <t>Tse et al. (2011)</t>
+  </si>
+  <si>
+    <t>F(1, 150) = 11.74, p &lt; .001</t>
+  </si>
+  <si>
+    <t>Tse_2009_Pure</t>
+  </si>
+  <si>
+    <t>Tse_2009_Mixed</t>
+  </si>
+  <si>
+    <t>Tse_2011</t>
+  </si>
+  <si>
+    <t>F(1,30) = 19.65, p &lt; .001</t>
+  </si>
+  <si>
+    <t>F(1, 23) = 82.92, p &lt; .001</t>
+  </si>
+  <si>
+    <t>F(1, 15) = 152.92, p &lt; .001</t>
+  </si>
+  <si>
+    <t>F(1, 15) = 52.87, p &lt; .001</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>F(1, 46) = 32.629, p &lt; .001</t>
+  </si>
+  <si>
+    <t>F(1,19) = 1.30, p = 0.27</t>
+  </si>
+  <si>
+    <t>F(1, 23) = 2.10, p = .16</t>
+  </si>
+  <si>
+    <t>Saint-Aubin &amp; Poirier (1999a, 1)</t>
+  </si>
+  <si>
+    <t>Saint-Aubin &amp; Poirier (1999a, 2)</t>
   </si>
 </sst>
 </file>
@@ -829,7 +1358,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +1368,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -877,6 +1442,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,36 +1763,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130E2A9F-2934-3A4C-B138-580F2A86AE7C}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="93.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1233,593 +1801,594 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
       </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="1">
         <v>21</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="9">
+        <v>-1</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="9">
-        <v>-1</v>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4">
+        <v>40</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="4">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
       </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
         <v>96</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
         <v>96</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>9</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>-1</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="4">
         <v>40</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="N6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>-1</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="4">
         <v>40</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="N7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="4">
+        <f>G8 / SQRT(I8)</f>
+        <v>0.38987177379235849</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SQRT(H8)</f>
+        <v>1.7435595774162693</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.04</v>
+      </c>
       <c r="I8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="4">
-        <f>K8 / SQRT(M8)</f>
-        <v>0.38987177379235849</v>
-      </c>
-      <c r="K8" s="4">
-        <f>SQRT(L8)</f>
-        <v>1.7435595774162693</v>
-      </c>
-      <c r="L8" s="4">
-        <v>3.04</v>
-      </c>
-      <c r="M8" s="4">
         <v>20</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="4">
+        <f>G9 / SQRT(I9)</f>
+        <v>0.38987177379235849</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SQRT(H9)</f>
+        <v>1.7435595774162693</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.04</v>
+      </c>
       <c r="I9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="4">
-        <f>K9 / SQRT(M9)</f>
-        <v>0.38987177379235849</v>
-      </c>
-      <c r="K9" s="4">
-        <f>SQRT(L9)</f>
-        <v>1.7435595774162693</v>
-      </c>
-      <c r="L9" s="4">
-        <v>3.04</v>
-      </c>
-      <c r="M9" s="4">
         <v>20</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
       </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="1">
         <v>24</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="3"/>
+      <c r="M10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="1">
-        <v>-1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="1">
-        <v>56</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="1">
-        <v>-1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="1">
-        <v>56</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>47</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>-1</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
         <v>11</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="N13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>-1</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
         <v>11</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="N14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,36 +2399,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4C46C6-03A2-6048-8E9F-4A3FC3FA2BA1}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="90.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1872,792 +2437,765 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
       <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2">
-        <v>64</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
       <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3">
-        <v>64</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>9</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4">
+        <v>24</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="4">
-        <v>24</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>9</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
+      <c r="G5" s="4">
+        <f>SQRT(H5)</f>
+        <v>1.019803902718557</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I5" s="4">
+        <v>32</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <f>SQRT(L5)</f>
-        <v>1.019803902718557</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="M5" s="4">
-        <v>32</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>73</v>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F25" si="0">G6 / SQRT(I6)</f>
+        <v>3.354101966249684E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.15</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" ref="J6:J25" si="0">K6 / SQRT(M6)</f>
-        <v>3.354101966249684E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
         <v>20</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="N6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.354101966249684E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.15</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>3.354101966249684E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="G8" s="4">
         <v>0.15</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>20</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>3.354101966249684E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="G9" s="4">
         <v>0.15</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>3.354101966249684E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="G10" s="4">
         <v>0.15</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <v>20</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>3.354101966249684E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="G11" s="4">
         <v>0.15</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <v>20</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>3.354101966249684E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="G12" s="4">
         <v>0.15</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <v>20</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>3.354101966249684E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="G13" s="4">
         <v>0.15</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.354101966249684E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
         <v>20</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>1.4342535805544756</v>
       </c>
-      <c r="K14">
-        <f>SQRT(L14)</f>
+      <c r="G14">
+        <f>SQRT(H14)</f>
         <v>7.0263788682364687</v>
       </c>
-      <c r="L14">
+      <c r="H14">
         <v>49.37</v>
       </c>
-      <c r="M14">
+      <c r="I14">
         <v>24</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" t="s">
-        <v>75</v>
-      </c>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>1.5264337522473748</v>
       </c>
-      <c r="K15">
-        <f t="shared" ref="K15:K18" si="1">SQRT(L15)</f>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="1">SQRT(H15)</f>
         <v>6.1057350089894991</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>37.28</v>
       </c>
-      <c r="M15">
+      <c r="I15">
         <v>16</v>
       </c>
-      <c r="P15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>70</v>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>1.1219402836158439</v>
       </c>
-      <c r="K16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>4.4877611344633754</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>20.14</v>
       </c>
-      <c r="M16">
+      <c r="I16">
         <v>16</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>70</v>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>1.1219402836158439</v>
       </c>
-      <c r="K17">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>4.4877611344633754</v>
       </c>
-      <c r="L17">
+      <c r="H17">
         <v>20.14</v>
       </c>
-      <c r="M17">
+      <c r="I17">
         <v>16</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>7</v>
@@ -2668,595 +3206,709 @@
       <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>1.2861441080480318</v>
       </c>
-      <c r="K18" s="4">
+      <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>6.3007936008093459</v>
       </c>
-      <c r="L18" s="4">
+      <c r="H18" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="M18" s="4">
+      <c r="I18" s="4">
         <v>24</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="4">
         <v>7</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>0.39528470752104744</v>
       </c>
-      <c r="K19" s="4">
-        <f>SQRT(L19)</f>
+      <c r="G19" s="4">
+        <f>SQRT(H19)</f>
         <v>1.9364916731037085</v>
       </c>
-      <c r="L19" s="4">
+      <c r="H19" s="4">
         <v>3.75</v>
       </c>
-      <c r="M19" s="4">
+      <c r="I19" s="4">
         <v>24</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>1.1279999999999999</v>
       </c>
-      <c r="K20" s="1">
+      <c r="G20" s="1">
         <v>5.64</v>
       </c>
-      <c r="M20" s="1">
+      <c r="I20" s="1">
         <v>25</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>6</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>0.38200000000000001</v>
       </c>
-      <c r="K21" s="1">
+      <c r="G21" s="1">
         <v>1.91</v>
       </c>
-      <c r="M21" s="1">
+      <c r="I21" s="1">
         <v>25</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>1.4333195735773652</v>
       </c>
-      <c r="K22" s="1">
+      <c r="G22" s="1">
         <v>6.41</v>
       </c>
-      <c r="M22" s="1">
+      <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>0.48522675111745434</v>
       </c>
-      <c r="K23" s="1">
+      <c r="G23" s="1">
         <v>2.17</v>
       </c>
-      <c r="M23" s="1">
+      <c r="I23" s="1">
         <v>20</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="L23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4">
         <v>6</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77055175037112211</v>
+      </c>
+      <c r="G24" s="4">
+        <v>9.5</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77055175037112211</v>
-      </c>
-      <c r="K24" s="4">
-        <v>9.5</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4">
-        <v>152</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
         <v>6</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54587508210501601</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6.73</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.54587508210501601</v>
-      </c>
-      <c r="K25" s="4">
-        <v>6.73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4">
-        <v>152</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <f>G26 / SQRT(I26)</f>
+        <v>1.7262676501632068</v>
+      </c>
+      <c r="G26" s="1">
+        <f>SQRT(H26)</f>
+        <v>7.7201036262475133</v>
+      </c>
+      <c r="H26" s="1">
+        <v>59.6</v>
+      </c>
       <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <f>K26 / SQRT(M26)</f>
-        <v>1.7262676501632068</v>
-      </c>
-      <c r="K26" s="1">
-        <f>SQRT(L26)</f>
-        <v>7.7201036262475133</v>
-      </c>
-      <c r="L26" s="1">
-        <v>59.6</v>
-      </c>
-      <c r="M26" s="1">
         <v>20</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>91</v>
+      <c r="L26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
         <v>4</v>
       </c>
+      <c r="J27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="N27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4">
         <v>6</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
         <v>4</v>
       </c>
+      <c r="J28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="N28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1">
         <v>10</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1">
         <v>10</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
         <v>11</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1">
         <v>11</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ref="F33" si="2">G33 / SQRT(I33)</f>
+        <v>0.8244821607126096</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" ref="G33" si="3">SQRT(H33)</f>
+        <v>5.7121799691536328</v>
+      </c>
+      <c r="H33" s="4">
+        <v>32.628999999999998</v>
+      </c>
+      <c r="I33" s="4">
+        <v>48</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>8</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3268,11 +3920,1527 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842B498-2081-0D45-90F6-1743F33BB182}">
-  <dimension ref="A1:A46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BA943E-20A2-2844-8519-68F91E4D00AE}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>25</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>48</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>8</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>8</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD9D030-B7AF-C947-A41C-105062C9946D}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>152</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>152</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842B498-2081-0D45-90F6-1743F33BB182}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3287,147 +5455,147 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -3437,76 +5605,88 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
